--- a/biology/Botanique/Métaarsénite_de_sodium/Métaarsénite_de_sodium.xlsx
+++ b/biology/Botanique/Métaarsénite_de_sodium/Métaarsénite_de_sodium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9taars%C3%A9nite_de_sodium</t>
+          <t>Métaarsénite_de_sodium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La métaarsénite de sodium ou l'arsénite de sodium ou arsénite de soude est le sel de sodium de l'acide métaarsénieux. C'est une substance active de produit phytosanitaire (ou produit phytopharmaceutique, ou pesticide), qui présente un effet fongicide, et qui appartient à la famille chimique des arsenicaux.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9taars%C3%A9nite_de_sodium</t>
+          <t>Métaarsénite_de_sodium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur le plan de la réglementation des produits phytopharmaceutiques :
 Au sein de l’Union européenne, cette substance active n'est pas inscrite à l’annexe I de la directive 91/414/CEE. Le règlement 2076/2002/CE du 20 novembre 2002 impose aux États membres de retirer les autorisations de mise sur le marché des préparations à base d'arsénite de sodium au plus tard le 25 juillet 2003 et d'interdire l'utilisation de ces préparations au plus tard le 31 décembre 2003.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9taars%C3%A9nite_de_sodium</t>
+          <t>Métaarsénite_de_sodium</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Plainte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 7 juillet 2015, le pôle santé publique du Tribunal de grande instance de Paris ouvre une enquête préliminaire à la suite d'un dépôt de plainte contre X pour homicide involontaire. La victime est un vigneron atteint d’un cancer lié à l’utilisation professionnelle de l’arsénite de sodium. Cette enquête vise à définir les responsabilités de l'État, de la Mutualité sociale agricole et des industries[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 7 juillet 2015, le pôle santé publique du Tribunal de grande instance de Paris ouvre une enquête préliminaire à la suite d'un dépôt de plainte contre X pour homicide involontaire. La victime est un vigneron atteint d’un cancer lié à l’utilisation professionnelle de l’arsénite de sodium. Cette enquête vise à définir les responsabilités de l'État, de la Mutualité sociale agricole et des industries.
 </t>
         </is>
       </c>
